--- a/configuration/BlogReply.xlsx
+++ b/configuration/BlogReply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EFDC7-34D7-4B73-8D1E-40FB45D6903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC97156B-1D19-4385-9376-D3F0335ECF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD9D22B-CA52-4EF0-B7CC-7CDC08CE51BB}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{CCD9D22B-CA52-4EF0-B7CC-7CDC08CE51BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>60 Common C# Interview Questions in 2022: Ace Your</t>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>this blog is decent</t>
+  </si>
+  <si>
+    <t>PostgreSQL vs. MySQL: Which SQL Platform Should You Use?</t>
   </si>
 </sst>
 </file>
@@ -412,19 +421,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9563BB94-60A4-4F62-889D-1465F9680431}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -444,6 +453,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
